--- a/tmp_client/doc/TMP_EIT_suites/radiant/silicon_10_Jedi_D9.xlsx
+++ b/tmp_client/doc/TMP_EIT_suites/radiant/silicon_10_Jedi_D9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwang1\Desktop\eee\10_Jedi_D9_basic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cxu2\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D7999F-6161-4EBC-A0F3-D341C4C2F90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153EC6C4-60B1-444C-B4C1-C3EC1E101974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="BBPw5sjxCCUVqKqDFh1VvlGl+6jBsyEv58ubpDIjFduKT4EttifNtZLgNn2j4jGi/bvDsFNRyO0+XWiClC3JHw==" workbookSaltValue="FQsz7bLsuDdqgfH6Nya7QA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="374">
   <si>
     <t>[suite_info]</t>
   </si>
@@ -1186,10 +1186,13 @@
     <t>cmd =  --check-conf=sim.conf,impl.conf --check-smart --sim-rtl</t>
   </si>
   <si>
-    <t xml:space="preserve">cmd =  --check-conf=impl.conf </t>
-  </si>
-  <si>
     <t>radiant= ng2022</t>
+  </si>
+  <si>
+    <t>cmd =  --check-conf=impl.conf --run-export-bitstream</t>
+  </si>
+  <si>
+    <t>PNMAIN_ENABLE_BITGEN = 1</t>
   </si>
 </sst>
 </file>
@@ -2280,7 +2283,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2288,13 +2291,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="47">
@@ -2354,7 +2357,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
@@ -2390,24 +2393,15 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="47" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2435,13 +2429,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="15" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2450,9 +2441,6 @@
     <xf numFmtId="165" fontId="21" fillId="0" borderId="16" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="18" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2465,22 +2453,19 @@
     <xf numFmtId="165" fontId="21" fillId="0" borderId="24" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="21" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="22" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="7" borderId="27" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2557,7 +2542,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="48" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="47" applyBorder="1" applyAlignment="1">
@@ -2581,19 +2566,19 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5507,7 +5492,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5558,6 +5543,9 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
@@ -5572,7 +5560,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5680,7 +5668,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5770,41 +5758,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="71" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -7229,42 +7217,42 @@
       <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:AE2" xr:uid="{C2B529A0-D484-4DA1-AA08-9A073EA9D02C}"/>
+      <autoFilter ref="A2:AE2" xr:uid="{06D7853F-21AA-4DC2-9DF7-370B797AE2BB}"/>
     </customSheetView>
     <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A2:Y2" xr:uid="{8590BAC9-0DE4-4BC5-B3C9-9A0192F71AC0}"/>
+      <autoFilter ref="A2:Y2" xr:uid="{ADAA3D6F-4318-4B59-81D6-423C1181E84D}"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A2:Y2" xr:uid="{6B77AE42-89BD-46FB-8E4B-F5371F535296}"/>
+      <autoFilter ref="A2:Y2" xr:uid="{673284EE-F0AD-427D-A7E8-65EB796506A8}"/>
     </customSheetView>
     <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A2:AE2" xr:uid="{0D2FAA97-2084-4B72-A975-0A20159BCD4B}"/>
+      <autoFilter ref="A2:AE2" xr:uid="{41C1F83F-4C16-416B-AFF9-43FFD2910758}"/>
     </customSheetView>
     <customSheetView guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="C120" sqref="C120"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-      <autoFilter ref="A2:AE330" xr:uid="{C2B18F97-CC36-4713-9AC1-4A066C95F8FD}"/>
+      <autoFilter ref="A2:AE330" xr:uid="{FFA2F234-F3F9-464B-8D81-7146AE8BADE4}"/>
     </customSheetView>
     <customSheetView guid="{39A3C600-CBEE-40C9-80F0-0CFC304055C6}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="I86" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="AE100" sqref="AE100"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-      <autoFilter ref="A2:AE301" xr:uid="{9FFFD5CC-B228-4D83-ABA2-AD45B2D91E79}"/>
+      <autoFilter ref="A2:AE301" xr:uid="{27C071D9-A808-4C8F-9D13-C8F0AF9610DE}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -7405,17 +7393,17 @@
       <c r="E111" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F111" s="74" t="s">
+      <c r="F111" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="G111" s="75"/>
-      <c r="H111" s="75"/>
-      <c r="I111" s="75"/>
-      <c r="J111" s="75"/>
-      <c r="K111" s="75"/>
-      <c r="L111" s="75"/>
-      <c r="M111" s="75"/>
-      <c r="N111" s="76"/>
+      <c r="G111" s="69"/>
+      <c r="H111" s="69"/>
+      <c r="I111" s="69"/>
+      <c r="J111" s="69"/>
+      <c r="K111" s="69"/>
+      <c r="L111" s="69"/>
+      <c r="M111" s="69"/>
+      <c r="N111" s="70"/>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="11" t="s">
@@ -8305,7 +8293,7 @@
       <c r="A148" s="26">
         <v>1</v>
       </c>
-      <c r="B148" s="77" t="s">
+      <c r="B148" s="71" t="s">
         <v>3</v>
       </c>
       <c r="C148" s="27" t="s">
@@ -8331,7 +8319,7 @@
       <c r="A149" s="26">
         <v>2</v>
       </c>
-      <c r="B149" s="78"/>
+      <c r="B149" s="72"/>
       <c r="C149" s="28" t="s">
         <v>129</v>
       </c>
@@ -8353,7 +8341,7 @@
       <c r="A150" s="26">
         <v>3</v>
       </c>
-      <c r="B150" s="78"/>
+      <c r="B150" s="72"/>
       <c r="C150" s="28" t="s">
         <v>9</v>
       </c>
@@ -8373,7 +8361,7 @@
       <c r="A151" s="26">
         <v>4</v>
       </c>
-      <c r="B151" s="78"/>
+      <c r="B151" s="72"/>
       <c r="C151" s="28" t="s">
         <v>131</v>
       </c>
@@ -8397,7 +8385,7 @@
       <c r="A152" s="26">
         <v>5</v>
       </c>
-      <c r="B152" s="78"/>
+      <c r="B152" s="72"/>
       <c r="C152" s="27" t="s">
         <v>133</v>
       </c>
@@ -8421,7 +8409,7 @@
       <c r="A153" s="26">
         <v>6</v>
       </c>
-      <c r="B153" s="78"/>
+      <c r="B153" s="72"/>
       <c r="C153" s="27" t="s">
         <v>137</v>
       </c>
@@ -8445,7 +8433,7 @@
       <c r="A154" s="26">
         <v>7</v>
       </c>
-      <c r="B154" s="78"/>
+      <c r="B154" s="72"/>
       <c r="C154" s="28" t="s">
         <v>140</v>
       </c>
@@ -8467,7 +8455,7 @@
       <c r="A155" s="26">
         <v>8</v>
       </c>
-      <c r="B155" s="78"/>
+      <c r="B155" s="72"/>
       <c r="C155" s="27" t="s">
         <v>141</v>
       </c>
@@ -8491,7 +8479,7 @@
       <c r="A156" s="26">
         <v>9</v>
       </c>
-      <c r="B156" s="78"/>
+      <c r="B156" s="72"/>
       <c r="C156" s="27" t="s">
         <v>142</v>
       </c>
@@ -8515,7 +8503,7 @@
       <c r="A157" s="26">
         <v>10</v>
       </c>
-      <c r="B157" s="78"/>
+      <c r="B157" s="72"/>
       <c r="C157" s="28" t="s">
         <v>143</v>
       </c>
@@ -8539,7 +8527,7 @@
       <c r="A158" s="26">
         <v>11</v>
       </c>
-      <c r="B158" s="78"/>
+      <c r="B158" s="72"/>
       <c r="C158" s="28" t="s">
         <v>144</v>
       </c>
@@ -8563,7 +8551,7 @@
       <c r="A159" s="26">
         <v>12</v>
       </c>
-      <c r="B159" s="78"/>
+      <c r="B159" s="72"/>
       <c r="C159" s="28" t="s">
         <v>146</v>
       </c>
@@ -8585,7 +8573,7 @@
       <c r="A160" s="26">
         <v>13</v>
       </c>
-      <c r="B160" s="79"/>
+      <c r="B160" s="73"/>
       <c r="C160" s="28" t="s">
         <v>54</v>
       </c>
@@ -8609,7 +8597,7 @@
       <c r="A161" s="26">
         <v>14</v>
       </c>
-      <c r="B161" s="72" t="s">
+      <c r="B161" s="66" t="s">
         <v>4</v>
       </c>
       <c r="C161" s="28" t="s">
@@ -8635,7 +8623,7 @@
       <c r="A162" s="26">
         <v>15</v>
       </c>
-      <c r="B162" s="73"/>
+      <c r="B162" s="67"/>
       <c r="C162" s="28" t="s">
         <v>154</v>
       </c>
@@ -8659,7 +8647,7 @@
       <c r="A163" s="26">
         <v>16</v>
       </c>
-      <c r="B163" s="77" t="s">
+      <c r="B163" s="71" t="s">
         <v>5</v>
       </c>
       <c r="C163" s="28" t="s">
@@ -8683,7 +8671,7 @@
       <c r="A164" s="26">
         <v>17</v>
       </c>
-      <c r="B164" s="80"/>
+      <c r="B164" s="74"/>
       <c r="C164" s="27" t="s">
         <v>158</v>
       </c>
@@ -8705,7 +8693,7 @@
       <c r="A165" s="26">
         <v>18</v>
       </c>
-      <c r="B165" s="79"/>
+      <c r="B165" s="73"/>
       <c r="C165" s="27" t="s">
         <v>160</v>
       </c>
@@ -8725,7 +8713,7 @@
       <c r="A166" s="26">
         <v>19</v>
       </c>
-      <c r="B166" s="72" t="s">
+      <c r="B166" s="66" t="s">
         <v>6</v>
       </c>
       <c r="C166" s="28" t="s">
@@ -8749,7 +8737,7 @@
       <c r="A167" s="26">
         <v>20</v>
       </c>
-      <c r="B167" s="73"/>
+      <c r="B167" s="67"/>
       <c r="C167" s="28" t="s">
         <v>165</v>
       </c>
@@ -8769,7 +8757,7 @@
       <c r="A168" s="26">
         <v>21</v>
       </c>
-      <c r="B168" s="73"/>
+      <c r="B168" s="67"/>
       <c r="C168" s="28" t="s">
         <v>166</v>
       </c>
@@ -8789,7 +8777,7 @@
       <c r="A169" s="26">
         <v>22</v>
       </c>
-      <c r="B169" s="73"/>
+      <c r="B169" s="67"/>
       <c r="C169" s="28" t="s">
         <v>167</v>
       </c>
@@ -8809,7 +8797,7 @@
       <c r="A170" s="26">
         <v>23</v>
       </c>
-      <c r="B170" s="73"/>
+      <c r="B170" s="67"/>
       <c r="C170" s="28" t="s">
         <v>168</v>
       </c>
@@ -8829,7 +8817,7 @@
       <c r="A171" s="26">
         <v>24</v>
       </c>
-      <c r="B171" s="73"/>
+      <c r="B171" s="67"/>
       <c r="C171" s="28" t="s">
         <v>169</v>
       </c>
@@ -8849,7 +8837,7 @@
       <c r="A172" s="26">
         <v>25</v>
       </c>
-      <c r="B172" s="73"/>
+      <c r="B172" s="67"/>
       <c r="C172" s="28" t="s">
         <v>170</v>
       </c>
@@ -8869,7 +8857,7 @@
       <c r="A173" s="26">
         <v>26</v>
       </c>
-      <c r="B173" s="73"/>
+      <c r="B173" s="67"/>
       <c r="C173" s="28" t="s">
         <v>40</v>
       </c>
@@ -8889,7 +8877,7 @@
       <c r="A174" s="26">
         <v>27</v>
       </c>
-      <c r="B174" s="72" t="s">
+      <c r="B174" s="66" t="s">
         <v>7</v>
       </c>
       <c r="C174" s="28" t="s">
@@ -8913,7 +8901,7 @@
       <c r="A175" s="26">
         <v>28</v>
       </c>
-      <c r="B175" s="73"/>
+      <c r="B175" s="67"/>
       <c r="C175" s="27" t="s">
         <v>174</v>
       </c>
@@ -8935,7 +8923,7 @@
       <c r="A176" s="26">
         <v>29</v>
       </c>
-      <c r="B176" s="73"/>
+      <c r="B176" s="67"/>
       <c r="C176" s="28" t="s">
         <v>177</v>
       </c>
@@ -8957,7 +8945,7 @@
       <c r="A177" s="26">
         <v>30</v>
       </c>
-      <c r="B177" s="77" t="s">
+      <c r="B177" s="71" t="s">
         <v>8</v>
       </c>
       <c r="C177" s="28" t="s">
@@ -8983,7 +8971,7 @@
       <c r="A178" s="31">
         <v>31</v>
       </c>
-      <c r="B178" s="78"/>
+      <c r="B178" s="72"/>
       <c r="C178" s="32" t="s">
         <v>182</v>
       </c>
@@ -9007,7 +8995,7 @@
       <c r="A179" s="23">
         <v>32</v>
       </c>
-      <c r="B179" s="81" t="s">
+      <c r="B179" s="75" t="s">
         <v>184</v>
       </c>
       <c r="C179" s="33" t="s">
@@ -9031,7 +9019,7 @@
       <c r="A180" s="26">
         <v>33</v>
       </c>
-      <c r="B180" s="82"/>
+      <c r="B180" s="76"/>
       <c r="C180" s="27" t="s">
         <v>188</v>
       </c>
@@ -9053,7 +9041,7 @@
       <c r="A181" s="26">
         <v>34</v>
       </c>
-      <c r="B181" s="83"/>
+      <c r="B181" s="77"/>
       <c r="C181" s="34" t="s">
         <v>191</v>
       </c>
@@ -9075,7 +9063,7 @@
       <c r="A182" s="31">
         <v>35</v>
       </c>
-      <c r="B182" s="83"/>
+      <c r="B182" s="77"/>
       <c r="C182" s="34" t="s">
         <v>192</v>
       </c>
@@ -9097,17 +9085,17 @@
       <c r="A183" s="31">
         <v>36</v>
       </c>
-      <c r="B183" s="83"/>
+      <c r="B183" s="77"/>
       <c r="C183" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="D183" s="42" t="s">
+      <c r="D183" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E183" s="42" t="s">
+      <c r="E183" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F183" s="42"/>
+      <c r="F183" s="32"/>
       <c r="G183" s="34" t="s">
         <v>253</v>
       </c>
@@ -9117,15 +9105,15 @@
       <c r="A184" s="31">
         <v>37</v>
       </c>
-      <c r="B184" s="83"/>
+      <c r="B184" s="77"/>
       <c r="C184" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="D184" s="42" t="s">
+      <c r="D184" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E184" s="42"/>
-      <c r="F184" s="42" t="s">
+      <c r="E184" s="32"/>
+      <c r="F184" s="32" t="s">
         <v>248</v>
       </c>
       <c r="G184" s="34" t="s">
@@ -9139,7 +9127,7 @@
       <c r="A185" s="35">
         <v>38</v>
       </c>
-      <c r="B185" s="84"/>
+      <c r="B185" s="78"/>
       <c r="C185" s="36" t="s">
         <v>251</v>
       </c>
@@ -9166,7 +9154,7 @@
       </c>
     </row>
     <row r="187" spans="1:8">
-      <c r="B187" s="37" t="s">
+      <c r="B187" s="6" t="s">
         <v>198</v>
       </c>
     </row>
@@ -9187,280 +9175,280 @@
       <c r="A199" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B199" s="38" t="s">
+      <c r="B199" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="C199" s="85" t="s">
+      <c r="C199" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="D199" s="85"/>
-      <c r="E199" s="85"/>
-      <c r="F199" s="39" t="s">
+      <c r="D199" s="79"/>
+      <c r="E199" s="79"/>
+      <c r="F199" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="G199" s="40" t="s">
+      <c r="G199" s="38" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="86" t="s">
+      <c r="A200" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="B200" s="73" t="s">
+      <c r="B200" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="C200" s="88" t="s">
+      <c r="C200" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D200" s="89"/>
-      <c r="E200" s="89"/>
+      <c r="D200" s="83"/>
+      <c r="E200" s="83"/>
       <c r="F200" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G200" s="41" t="s">
+      <c r="G200" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="86"/>
-      <c r="B201" s="87"/>
-      <c r="C201" s="90" t="s">
+      <c r="A201" s="80"/>
+      <c r="B201" s="81"/>
+      <c r="C201" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D201" s="91"/>
-      <c r="E201" s="91"/>
+      <c r="D201" s="85"/>
+      <c r="E201" s="85"/>
       <c r="F201" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="G201" s="43" t="s">
+      <c r="G201" s="40" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="86"/>
-      <c r="B202" s="73" t="s">
+      <c r="A202" s="80"/>
+      <c r="B202" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="C202" s="92" t="s">
+      <c r="C202" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="D202" s="92"/>
-      <c r="E202" s="92"/>
+      <c r="D202" s="86"/>
+      <c r="E202" s="86"/>
       <c r="F202" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G202" s="41" t="s">
+      <c r="G202" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="86"/>
-      <c r="B203" s="73"/>
-      <c r="C203" s="90" t="s">
+      <c r="A203" s="80"/>
+      <c r="B203" s="67"/>
+      <c r="C203" s="84" t="s">
         <v>210</v>
       </c>
-      <c r="D203" s="90"/>
-      <c r="E203" s="90"/>
+      <c r="D203" s="84"/>
+      <c r="E203" s="84"/>
       <c r="F203" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G203" s="41" t="s">
+      <c r="G203" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="86"/>
-      <c r="B204" s="87" t="s">
+      <c r="A204" s="80"/>
+      <c r="B204" s="81" t="s">
         <v>211</v>
       </c>
-      <c r="C204" s="93" t="s">
+      <c r="C204" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D204" s="94"/>
-      <c r="E204" s="95"/>
+      <c r="D204" s="88"/>
+      <c r="E204" s="89"/>
       <c r="F204" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G204" s="41" t="s">
+      <c r="G204" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="86"/>
-      <c r="B205" s="79"/>
-      <c r="C205" s="93" t="s">
+      <c r="A205" s="80"/>
+      <c r="B205" s="73"/>
+      <c r="C205" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D205" s="94"/>
-      <c r="E205" s="95"/>
+      <c r="D205" s="88"/>
+      <c r="E205" s="89"/>
       <c r="F205" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G205" s="41" t="s">
+      <c r="G205" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="86"/>
-      <c r="B206" s="73" t="s">
+      <c r="A206" s="80"/>
+      <c r="B206" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="C206" s="92" t="s">
+      <c r="C206" s="86" t="s">
         <v>213</v>
       </c>
-      <c r="D206" s="92"/>
-      <c r="E206" s="92"/>
+      <c r="D206" s="86"/>
+      <c r="E206" s="86"/>
       <c r="F206" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G206" s="41" t="s">
+      <c r="G206" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="86"/>
-      <c r="B207" s="73"/>
-      <c r="C207" s="92" t="s">
+      <c r="A207" s="80"/>
+      <c r="B207" s="67"/>
+      <c r="C207" s="86" t="s">
         <v>213</v>
       </c>
-      <c r="D207" s="92"/>
-      <c r="E207" s="92"/>
+      <c r="D207" s="86"/>
+      <c r="E207" s="86"/>
       <c r="F207" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G207" s="41" t="s">
+      <c r="G207" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="86" t="s">
+      <c r="A208" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="B208" s="73" t="s">
+      <c r="B208" s="67" t="s">
         <v>215</v>
       </c>
-      <c r="C208" s="72" t="s">
+      <c r="C208" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D208" s="73"/>
-      <c r="E208" s="73"/>
+      <c r="D208" s="67"/>
+      <c r="E208" s="67"/>
       <c r="F208" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G208" s="41" t="s">
+      <c r="G208" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="86"/>
-      <c r="B209" s="73"/>
-      <c r="C209" s="73" t="s">
+      <c r="A209" s="80"/>
+      <c r="B209" s="67"/>
+      <c r="C209" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D209" s="73"/>
-      <c r="E209" s="73"/>
+      <c r="D209" s="67"/>
+      <c r="E209" s="67"/>
       <c r="F209" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G209" s="41" t="s">
+      <c r="G209" s="39" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="86"/>
-      <c r="B210" s="73" t="s">
+      <c r="A210" s="80"/>
+      <c r="B210" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="C210" s="73" t="s">
+      <c r="C210" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="D210" s="73"/>
-      <c r="E210" s="73"/>
+      <c r="D210" s="67"/>
+      <c r="E210" s="67"/>
       <c r="F210" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G210" s="41" t="s">
+      <c r="G210" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="86"/>
-      <c r="B211" s="73"/>
-      <c r="C211" s="73" t="s">
+      <c r="A211" s="80"/>
+      <c r="B211" s="67"/>
+      <c r="C211" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="D211" s="73"/>
-      <c r="E211" s="73"/>
+      <c r="D211" s="67"/>
+      <c r="E211" s="67"/>
       <c r="F211" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G211" s="41" t="s">
+      <c r="G211" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="86" t="s">
+      <c r="A212" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="B212" s="73" t="s">
+      <c r="B212" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="C212" s="72" t="s">
+      <c r="C212" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="D212" s="73"/>
-      <c r="E212" s="73"/>
+      <c r="D212" s="67"/>
+      <c r="E212" s="67"/>
       <c r="F212" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G212" s="41" t="s">
+      <c r="G212" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="86"/>
-      <c r="B213" s="73"/>
-      <c r="C213" s="73" t="s">
+      <c r="A213" s="80"/>
+      <c r="B213" s="67"/>
+      <c r="C213" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="D213" s="73"/>
-      <c r="E213" s="73"/>
+      <c r="D213" s="67"/>
+      <c r="E213" s="67"/>
       <c r="F213" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G213" s="41" t="s">
+      <c r="G213" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="86"/>
-      <c r="B214" s="73" t="s">
+      <c r="A214" s="80"/>
+      <c r="B214" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="C214" s="72" t="s">
+      <c r="C214" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="D214" s="73"/>
-      <c r="E214" s="73"/>
+      <c r="D214" s="67"/>
+      <c r="E214" s="67"/>
       <c r="F214" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G214" s="41" t="s">
+      <c r="G214" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A215" s="97"/>
-      <c r="B215" s="98"/>
-      <c r="C215" s="98" t="s">
+      <c r="A215" s="91"/>
+      <c r="B215" s="92"/>
+      <c r="C215" s="92" t="s">
         <v>222</v>
       </c>
-      <c r="D215" s="98"/>
-      <c r="E215" s="98"/>
+      <c r="D215" s="92"/>
+      <c r="E215" s="92"/>
       <c r="F215" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="G215" s="44" t="s">
+      <c r="G215" s="41" t="s">
         <v>61</v>
       </c>
     </row>
@@ -9468,60 +9456,43 @@
       <c r="A216" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C216" s="37"/>
-      <c r="D216" s="37"/>
-      <c r="E216" s="37"/>
-      <c r="F216" s="37"/>
-    </row>
-    <row r="217" spans="1:7">
-      <c r="C217" s="37"/>
-      <c r="D217" s="37"/>
-      <c r="E217" s="37"/>
-    </row>
-    <row r="218" spans="1:7">
-      <c r="C218" s="37"/>
-      <c r="D218" s="37"/>
-      <c r="E218" s="37"/>
     </row>
     <row r="219" spans="1:7" ht="15.75" thickBot="1">
       <c r="A219" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C219" s="37"/>
-      <c r="D219" s="37"/>
-      <c r="E219" s="37"/>
     </row>
     <row r="220" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A220" s="45" t="s">
+      <c r="A220" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="B220" s="99" t="s">
+      <c r="B220" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="C220" s="99"/>
-      <c r="D220" s="99"/>
-      <c r="E220" s="99"/>
-      <c r="F220" s="46" t="s">
+      <c r="C220" s="93"/>
+      <c r="D220" s="93"/>
+      <c r="E220" s="93"/>
+      <c r="F220" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="G220" s="47" t="s">
+      <c r="G220" s="44" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="93" customHeight="1">
-      <c r="A221" s="48" t="s">
+      <c r="A221" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="B221" s="100" t="s">
+      <c r="B221" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="C221" s="79"/>
-      <c r="D221" s="79"/>
-      <c r="E221" s="79"/>
-      <c r="F221" s="49" t="s">
+      <c r="C221" s="73"/>
+      <c r="D221" s="73"/>
+      <c r="E221" s="73"/>
+      <c r="F221" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="G221" s="50" t="s">
+      <c r="G221" s="47" t="s">
         <v>61</v>
       </c>
     </row>
@@ -9529,12 +9500,12 @@
       <c r="A222" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="B222" s="101" t="s">
+      <c r="B222" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="C222" s="102"/>
-      <c r="D222" s="102"/>
-      <c r="E222" s="103"/>
+      <c r="C222" s="96"/>
+      <c r="D222" s="96"/>
+      <c r="E222" s="97"/>
       <c r="F222" s="15" t="s">
         <v>61</v>
       </c>
@@ -9546,12 +9517,12 @@
       <c r="A223" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B223" s="101" t="s">
+      <c r="B223" s="95" t="s">
         <v>232</v>
       </c>
-      <c r="C223" s="102"/>
-      <c r="D223" s="102"/>
-      <c r="E223" s="103"/>
+      <c r="C223" s="96"/>
+      <c r="D223" s="96"/>
+      <c r="E223" s="97"/>
       <c r="F223" s="18" t="s">
         <v>61</v>
       </c>
@@ -9563,12 +9534,12 @@
       <c r="A224" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="B224" s="84" t="s">
+      <c r="B224" s="78" t="s">
         <v>234</v>
       </c>
-      <c r="C224" s="98"/>
-      <c r="D224" s="98"/>
-      <c r="E224" s="98"/>
+      <c r="C224" s="92"/>
+      <c r="D224" s="92"/>
+      <c r="E224" s="92"/>
       <c r="F224" s="21" t="s">
         <v>61</v>
       </c>
@@ -9577,7 +9548,7 @@
       </c>
     </row>
     <row r="225" spans="1:7">
-      <c r="C225" s="51"/>
+      <c r="C225" s="48"/>
     </row>
     <row r="227" spans="1:7" ht="15.75" thickBot="1">
       <c r="A227" s="6" t="s">
@@ -9588,275 +9559,275 @@
       <c r="A228" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B228" s="38" t="s">
+      <c r="B228" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C228" s="52" t="s">
+      <c r="C228" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="D228" s="53" t="s">
+      <c r="D228" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="E228" s="53"/>
-      <c r="F228" s="54"/>
-      <c r="G228" s="40" t="s">
+      <c r="E228" s="50"/>
+      <c r="F228" s="10"/>
+      <c r="G228" s="38" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="229" spans="1:7">
-      <c r="A229" s="55">
+      <c r="A229" s="51">
         <v>42682</v>
       </c>
-      <c r="B229" s="56">
+      <c r="B229" s="52">
         <v>1.04</v>
       </c>
       <c r="C229" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D229" s="96" t="s">
+      <c r="D229" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="E229" s="96"/>
-      <c r="F229" s="96"/>
-      <c r="G229" s="57"/>
+      <c r="E229" s="90"/>
+      <c r="F229" s="90"/>
+      <c r="G229" s="25"/>
     </row>
     <row r="230" spans="1:7">
-      <c r="A230" s="58">
+      <c r="A230" s="53">
         <v>42692</v>
       </c>
-      <c r="B230" s="59">
+      <c r="B230" s="54">
         <v>1.05</v>
       </c>
       <c r="C230" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D230" s="108" t="s">
+      <c r="D230" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="E230" s="108"/>
-      <c r="F230" s="108"/>
-      <c r="G230" s="41"/>
+      <c r="E230" s="102"/>
+      <c r="F230" s="102"/>
+      <c r="G230" s="39"/>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="58">
+      <c r="A231" s="53">
         <v>42955</v>
       </c>
-      <c r="B231" s="59">
+      <c r="B231" s="54">
         <v>1.06</v>
       </c>
       <c r="C231" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D231" s="108" t="s">
+      <c r="D231" s="102" t="s">
         <v>238</v>
       </c>
-      <c r="E231" s="108"/>
-      <c r="F231" s="108"/>
-      <c r="G231" s="41"/>
+      <c r="E231" s="102"/>
+      <c r="F231" s="102"/>
+      <c r="G231" s="39"/>
     </row>
     <row r="232" spans="1:7">
-      <c r="A232" s="58">
+      <c r="A232" s="53">
         <v>42991</v>
       </c>
-      <c r="B232" s="59">
+      <c r="B232" s="54">
         <v>1.07</v>
       </c>
       <c r="C232" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D232" s="108" t="s">
+      <c r="D232" s="102" t="s">
         <v>239</v>
       </c>
-      <c r="E232" s="108"/>
-      <c r="F232" s="108"/>
-      <c r="G232" s="41"/>
+      <c r="E232" s="102"/>
+      <c r="F232" s="102"/>
+      <c r="G232" s="39"/>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="58">
+      <c r="A233" s="53">
         <v>43026</v>
       </c>
-      <c r="B233" s="59">
+      <c r="B233" s="54">
         <v>1.08</v>
       </c>
       <c r="C233" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D233" s="108" t="s">
+      <c r="D233" s="102" t="s">
         <v>240</v>
       </c>
-      <c r="E233" s="108"/>
-      <c r="F233" s="108"/>
-      <c r="G233" s="41"/>
+      <c r="E233" s="102"/>
+      <c r="F233" s="102"/>
+      <c r="G233" s="39"/>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="58">
+      <c r="A234" s="53">
         <v>43069</v>
       </c>
-      <c r="B234" s="59">
+      <c r="B234" s="54">
         <v>1.0900000000000001</v>
       </c>
       <c r="C234" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D234" s="108" t="s">
+      <c r="D234" s="102" t="s">
         <v>241</v>
       </c>
-      <c r="E234" s="108"/>
-      <c r="F234" s="108"/>
-      <c r="G234" s="41"/>
+      <c r="E234" s="102"/>
+      <c r="F234" s="102"/>
+      <c r="G234" s="39"/>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="60">
+      <c r="A235" s="55">
         <v>43248</v>
       </c>
-      <c r="B235" s="61">
+      <c r="B235" s="56">
         <v>1.1000000000000001</v>
       </c>
       <c r="C235" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D235" s="104" t="s">
+      <c r="D235" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="E235" s="105"/>
-      <c r="F235" s="106"/>
-      <c r="G235" s="43"/>
+      <c r="E235" s="99"/>
+      <c r="F235" s="100"/>
+      <c r="G235" s="40"/>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" s="60">
+      <c r="A236" s="55">
         <v>43339</v>
       </c>
-      <c r="B236" s="61">
+      <c r="B236" s="56">
         <v>1.1100000000000001</v>
       </c>
       <c r="C236" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D236" s="104" t="s">
+      <c r="D236" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="E236" s="105"/>
-      <c r="F236" s="106"/>
-      <c r="G236" s="43"/>
+      <c r="E236" s="99"/>
+      <c r="F236" s="100"/>
+      <c r="G236" s="40"/>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="60">
+      <c r="A237" s="55">
         <v>43542</v>
       </c>
-      <c r="B237" s="61">
+      <c r="B237" s="56">
         <v>1.1200000000000001</v>
       </c>
       <c r="C237" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D237" s="104" t="s">
+      <c r="D237" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="E237" s="105"/>
-      <c r="F237" s="106"/>
-      <c r="G237" s="43"/>
+      <c r="E237" s="99"/>
+      <c r="F237" s="100"/>
+      <c r="G237" s="40"/>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="60">
+      <c r="A238" s="55">
         <v>43599</v>
       </c>
-      <c r="B238" s="61">
+      <c r="B238" s="56">
         <v>1.1299999999999999</v>
       </c>
       <c r="C238" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D238" s="62" t="s">
+      <c r="D238" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="E238" s="63"/>
-      <c r="F238" s="64"/>
-      <c r="G238" s="43"/>
+      <c r="E238" s="58"/>
+      <c r="F238" s="59"/>
+      <c r="G238" s="40"/>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="60">
+      <c r="A239" s="55">
         <v>43643</v>
       </c>
-      <c r="B239" s="61">
+      <c r="B239" s="56">
         <v>1.1399999999999999</v>
       </c>
       <c r="C239" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D239" s="62" t="s">
+      <c r="D239" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="E239" s="63"/>
-      <c r="F239" s="64"/>
-      <c r="G239" s="43"/>
+      <c r="E239" s="58"/>
+      <c r="F239" s="59"/>
+      <c r="G239" s="40"/>
     </row>
     <row r="240" spans="1:7">
-      <c r="A240" s="60">
+      <c r="A240" s="55">
         <v>43894</v>
       </c>
-      <c r="B240" s="61">
+      <c r="B240" s="56">
         <v>1.1499999999999999</v>
       </c>
       <c r="C240" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D240" s="62" t="s">
+      <c r="D240" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="E240" s="63"/>
-      <c r="F240" s="64"/>
-      <c r="G240" s="43"/>
+      <c r="E240" s="58"/>
+      <c r="F240" s="59"/>
+      <c r="G240" s="40"/>
     </row>
     <row r="241" spans="1:7">
-      <c r="A241" s="60">
+      <c r="A241" s="55">
         <v>44017</v>
       </c>
-      <c r="B241" s="61">
+      <c r="B241" s="56">
         <v>1.1599999999999999</v>
       </c>
-      <c r="C241" s="42" t="s">
+      <c r="C241" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D241" s="62" t="s">
+      <c r="D241" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="E241" s="63"/>
-      <c r="F241" s="64"/>
-      <c r="G241" s="43"/>
+      <c r="E241" s="58"/>
+      <c r="F241" s="59"/>
+      <c r="G241" s="40"/>
     </row>
     <row r="242" spans="1:7">
-      <c r="A242" s="60">
+      <c r="A242" s="55">
         <v>44118</v>
       </c>
-      <c r="B242" s="61">
+      <c r="B242" s="56">
         <v>1.17</v>
       </c>
-      <c r="C242" s="67" t="s">
+      <c r="C242" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D242" s="62" t="s">
+      <c r="D242" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="E242" s="63"/>
-      <c r="F242" s="64"/>
-      <c r="G242" s="43"/>
+      <c r="E242" s="58"/>
+      <c r="F242" s="59"/>
+      <c r="G242" s="40"/>
     </row>
     <row r="243" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A243" s="65">
+      <c r="A243" s="60">
         <v>44209</v>
       </c>
-      <c r="B243" s="66">
+      <c r="B243" s="61">
         <v>1.18</v>
       </c>
       <c r="C243" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D243" s="107" t="s">
+      <c r="D243" s="101" t="s">
         <v>257</v>
       </c>
-      <c r="E243" s="107"/>
-      <c r="F243" s="107"/>
-      <c r="G243" s="44"/>
+      <c r="E243" s="101"/>
+      <c r="F243" s="101"/>
+      <c r="G243" s="41"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="dSSGbMlehNtWlIHSSfftCqUMab+Sb0hooxQMUpoStERkR2/XS3ERiPNaNXV+uIt5I/NGfmkjhmoCMOi5hOXKdQ==" saltValue="4j3/9e0Khi55FR2zrD17vg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>

--- a/tmp_client/doc/TMP_EIT_suites/radiant/silicon_10_Jedi_D9.xlsx
+++ b/tmp_client/doc/TMP_EIT_suites/radiant/silicon_10_Jedi_D9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cxu2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repository\tmp_client\doc\TMP_EIT_suites\radiant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153EC6C4-60B1-444C-B4C1-C3EC1E101974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6974DE-5F8C-42BD-82EB-8C744A3FBC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="BBPw5sjxCCUVqKqDFh1VvlGl+6jBsyEv58ubpDIjFduKT4EttifNtZLgNn2j4jGi/bvDsFNRyO0+XWiClC3JHw==" workbookSaltValue="FQsz7bLsuDdqgfH6Nya7QA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -20,28 +20,28 @@
     <sheet name="comments" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">case!$A$2:$AE$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">case!$A$2:$AE$95</definedName>
     <definedName name="Z_16B2C8B3_13FA_43FB_96C1_3763C72619A6_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$2</definedName>
     <definedName name="Z_179F0E1F_F6F7_410E_B883_54B8A90BA550_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$2</definedName>
     <definedName name="Z_1F35143E_328B_4EDC_927C_C18A57070EA0_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$2</definedName>
-    <definedName name="Z_39A3C600_CBEE_40C9_80F0_0CFC304055C6_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$96</definedName>
-    <definedName name="Z_4BA09E17_24A5_4F6D_8CB6_7B3DF9B00FDE_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$96</definedName>
+    <definedName name="Z_39A3C600_CBEE_40C9_80F0_0CFC304055C6_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$95</definedName>
+    <definedName name="Z_4BA09E17_24A5_4F6D_8CB6_7B3DF9B00FDE_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$95</definedName>
     <definedName name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Leijie Sun - Personal View" guid="{39A3C600-CBEE-40C9-80F0-0CFC304055C6}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1096" activeSheetId="2"/>
+    <customWorkbookView name="Xuan Gao - Personal View" guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="3"/>
+    <customWorkbookView name="Jeffrey Ye - Personal View" guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
+    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
+    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
     <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
-    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
-    <customWorkbookView name="Jeffrey Ye - Personal View" guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
-    <customWorkbookView name="Xuan Gao - Personal View" guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="3"/>
-    <customWorkbookView name="Leijie Sun - Personal View" guid="{39A3C600-CBEE-40C9-80F0-0CFC304055C6}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1096" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="373">
   <si>
     <t>[suite_info]</t>
   </si>
@@ -1097,9 +1097,6 @@
   </si>
   <si>
     <t>00_primitive/06_DDR/18_ODDRX2_22_gddrx2</t>
-  </si>
-  <si>
-    <t>00_primitive/06_DDR/21_ODDRX4_26_gddrx4</t>
   </si>
   <si>
     <t>00_primitive/06_DDR/24_ODDRX5_27_gddrx5</t>
@@ -2480,20 +2477,59 @@
     <xf numFmtId="49" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2501,12 +2537,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2516,13 +2546,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
@@ -2542,44 +2566,17 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="48" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="47" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -5169,9 +5166,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5209,9 +5206,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5244,26 +5241,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5296,26 +5276,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5492,13 +5455,13 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -5507,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5515,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5523,7 +5486,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5531,12 +5494,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5544,7 +5507,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5560,7 +5523,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5619,7 +5582,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5668,7 +5631,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5679,33 +5642,33 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="M2LtmAuZWVh434kf/vY//KBNoC59GLeeKziX5hoSug3iVJiJ5tXAzvpNmje83pZdEJKzdsTTtkWpXPZLQD1DBw==" saltValue="/tyJkRvNzwUrD9X6WTsKXA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{39A3C600-CBEE-40C9-80F0-0CFC304055C6}" topLeftCell="A22">
+      <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" topLeftCell="A28">
+      <selection activeCell="L16" sqref="L16"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}">
+      <selection activeCell="B10" sqref="B10"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
+      <selection activeCell="B4" sqref="B4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
     <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
       <selection activeCell="B35" sqref="B35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
-      <selection activeCell="B4" sqref="B4"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}">
-      <selection activeCell="B10" sqref="B10"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-    </customSheetView>
-    <customSheetView guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" topLeftCell="A28">
-      <selection activeCell="L16" sqref="L16"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
-    <customSheetView guid="{39A3C600-CBEE-40C9-80F0-0CFC304055C6}" topLeftCell="A22">
-      <selection activeCell="B11" sqref="B11"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
     </customSheetView>
@@ -5718,14 +5681,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE96"/>
+  <dimension ref="A1:AE95"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B96" sqref="B96"/>
+      <selection pane="bottomRight" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5900,7 +5863,7 @@
         <v>268</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -5914,7 +5877,7 @@
         <v>268</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -5936,13 +5899,13 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>268</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -5956,7 +5919,7 @@
         <v>268</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -5970,7 +5933,7 @@
         <v>268</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -5984,7 +5947,7 @@
         <v>268</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -5998,7 +5961,7 @@
         <v>268</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -6012,7 +5975,7 @@
         <v>268</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -6026,7 +5989,7 @@
         <v>268</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -6040,7 +6003,7 @@
         <v>268</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -6054,7 +6017,7 @@
         <v>268</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -6068,7 +6031,7 @@
         <v>268</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -6082,7 +6045,7 @@
         <v>268</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -6096,7 +6059,7 @@
         <v>268</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -6110,7 +6073,7 @@
         <v>268</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -6124,7 +6087,7 @@
         <v>268</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -6138,7 +6101,7 @@
         <v>268</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -6152,7 +6115,7 @@
         <v>268</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -6166,7 +6129,7 @@
         <v>268</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -6194,7 +6157,7 @@
         <v>268</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -6230,13 +6193,13 @@
         <v>25</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S27" s="2" t="s">
         <v>268</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -6250,7 +6213,7 @@
         <v>268</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -6264,7 +6227,7 @@
         <v>268</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -6281,7 +6244,7 @@
         <v>268</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -6295,7 +6258,7 @@
         <v>268</v>
       </c>
       <c r="AE31" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -6309,7 +6272,7 @@
         <v>268</v>
       </c>
       <c r="AE32" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -6323,7 +6286,7 @@
         <v>268</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -6351,7 +6314,7 @@
         <v>268</v>
       </c>
       <c r="AE35" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -6365,7 +6328,7 @@
         <v>268</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -6379,7 +6342,7 @@
         <v>268</v>
       </c>
       <c r="AE37" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -6393,7 +6356,7 @@
         <v>268</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -6407,7 +6370,7 @@
         <v>268</v>
       </c>
       <c r="AE39" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -6421,7 +6384,7 @@
         <v>268</v>
       </c>
       <c r="AE40" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -6435,7 +6398,7 @@
         <v>268</v>
       </c>
       <c r="AE41" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -6449,7 +6412,7 @@
         <v>268</v>
       </c>
       <c r="AE42" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -6463,7 +6426,7 @@
         <v>268</v>
       </c>
       <c r="AE43" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -6477,7 +6440,7 @@
         <v>268</v>
       </c>
       <c r="AE44" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -6491,7 +6454,7 @@
         <v>268</v>
       </c>
       <c r="AE45" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -6505,7 +6468,7 @@
         <v>268</v>
       </c>
       <c r="AE46" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -6519,7 +6482,7 @@
         <v>268</v>
       </c>
       <c r="AE47" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -6533,7 +6496,7 @@
         <v>268</v>
       </c>
       <c r="AE48" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -6547,7 +6510,7 @@
         <v>268</v>
       </c>
       <c r="AE49" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -6561,7 +6524,7 @@
         <v>268</v>
       </c>
       <c r="AE50" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -6575,7 +6538,7 @@
         <v>268</v>
       </c>
       <c r="AE51" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -6589,7 +6552,7 @@
         <v>268</v>
       </c>
       <c r="AE52" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -6603,7 +6566,7 @@
         <v>268</v>
       </c>
       <c r="AE53" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -6617,7 +6580,7 @@
         <v>268</v>
       </c>
       <c r="AE54" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -6631,7 +6594,7 @@
         <v>268</v>
       </c>
       <c r="AE55" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -6645,7 +6608,7 @@
         <v>268</v>
       </c>
       <c r="AE56" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -6659,7 +6622,7 @@
         <v>268</v>
       </c>
       <c r="AE57" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -6673,7 +6636,7 @@
         <v>268</v>
       </c>
       <c r="AE58" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -6687,7 +6650,7 @@
         <v>268</v>
       </c>
       <c r="AE59" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -6701,7 +6664,7 @@
         <v>268</v>
       </c>
       <c r="AE60" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -6715,7 +6678,7 @@
         <v>268</v>
       </c>
       <c r="AE61" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -6729,7 +6692,7 @@
         <v>268</v>
       </c>
       <c r="AE62" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -6743,7 +6706,7 @@
         <v>268</v>
       </c>
       <c r="AE63" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -6757,7 +6720,7 @@
         <v>268</v>
       </c>
       <c r="AE64" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -6771,7 +6734,7 @@
         <v>268</v>
       </c>
       <c r="AE65" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -6785,7 +6748,7 @@
         <v>268</v>
       </c>
       <c r="AE66" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -6799,7 +6762,7 @@
         <v>268</v>
       </c>
       <c r="AE67" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -6813,7 +6776,7 @@
         <v>268</v>
       </c>
       <c r="AE68" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -6827,7 +6790,7 @@
         <v>268</v>
       </c>
       <c r="AE69" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -6841,7 +6804,7 @@
         <v>268</v>
       </c>
       <c r="AE70" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -6855,7 +6818,7 @@
         <v>268</v>
       </c>
       <c r="AE71" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -6869,7 +6832,7 @@
         <v>268</v>
       </c>
       <c r="AE72" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -6883,7 +6846,7 @@
         <v>268</v>
       </c>
       <c r="AE73" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="74" spans="1:31">
@@ -6897,7 +6860,7 @@
         <v>268</v>
       </c>
       <c r="AE74" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="75" spans="1:31">
@@ -6911,7 +6874,7 @@
         <v>268</v>
       </c>
       <c r="AE75" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="76" spans="1:31">
@@ -6925,7 +6888,7 @@
         <v>268</v>
       </c>
       <c r="AE76" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="77" spans="1:31">
@@ -6939,7 +6902,7 @@
         <v>268</v>
       </c>
       <c r="AE77" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="78" spans="1:31">
@@ -6953,7 +6916,7 @@
         <v>268</v>
       </c>
       <c r="AE78" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="79" spans="1:31">
@@ -6967,7 +6930,7 @@
         <v>268</v>
       </c>
       <c r="AE79" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="1:31">
@@ -6981,7 +6944,7 @@
         <v>268</v>
       </c>
       <c r="AE80" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="81" spans="1:31">
@@ -6995,7 +6958,7 @@
         <v>268</v>
       </c>
       <c r="AE81" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="82" spans="1:31">
@@ -7009,7 +6972,7 @@
         <v>268</v>
       </c>
       <c r="AE82" s="2" t="s">
-        <v>369</v>
+        <v>270</v>
       </c>
     </row>
     <row r="83" spans="1:31">
@@ -7023,7 +6986,7 @@
         <v>268</v>
       </c>
       <c r="AE83" s="2" t="s">
-        <v>270</v>
+        <v>368</v>
       </c>
     </row>
     <row r="84" spans="1:31">
@@ -7037,7 +7000,7 @@
         <v>268</v>
       </c>
       <c r="AE84" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="85" spans="1:31">
@@ -7051,7 +7014,7 @@
         <v>268</v>
       </c>
       <c r="AE85" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="86" spans="1:31">
@@ -7065,7 +7028,7 @@
         <v>268</v>
       </c>
       <c r="AE86" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87" spans="1:31">
@@ -7079,7 +7042,7 @@
         <v>268</v>
       </c>
       <c r="AE87" s="2" t="s">
-        <v>369</v>
+        <v>270</v>
       </c>
     </row>
     <row r="88" spans="1:31">
@@ -7087,13 +7050,13 @@
         <v>86</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="S88" s="2" t="s">
         <v>268</v>
       </c>
       <c r="AE88" s="2" t="s">
-        <v>270</v>
+        <v>368</v>
       </c>
     </row>
     <row r="89" spans="1:31">
@@ -7107,7 +7070,7 @@
         <v>268</v>
       </c>
       <c r="AE89" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="90" spans="1:31">
@@ -7115,13 +7078,13 @@
         <v>88</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="S90" s="2" t="s">
         <v>268</v>
       </c>
       <c r="AE90" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="91" spans="1:31">
@@ -7135,7 +7098,7 @@
         <v>268</v>
       </c>
       <c r="AE91" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="92" spans="1:31">
@@ -7149,7 +7112,7 @@
         <v>268</v>
       </c>
       <c r="AE92" s="2" t="s">
-        <v>369</v>
+        <v>270</v>
       </c>
     </row>
     <row r="93" spans="1:31">
@@ -7177,7 +7140,7 @@
         <v>268</v>
       </c>
       <c r="AE94" s="2" t="s">
-        <v>270</v>
+        <v>368</v>
       </c>
     </row>
     <row r="95" spans="1:31">
@@ -7191,68 +7154,54 @@
         <v>268</v>
       </c>
       <c r="AE95" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="96" spans="1:31">
-      <c r="A96" s="2">
-        <v>94</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="S96" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="AE96" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="wYyLYkYahjFr3kRa8m4QEOr/9bAyHN3eau7fH54t9FuVR9Y7dOlAczlKGUNmnOJsE2FMDmUZSB+5VUkTOaF+Gw==" saltValue="IJOgjtSVdNQTBUzhUxLQtg==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A2:AE96" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:AE95" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+    <customSheetView guid="{39A3C600-CBEE-40C9-80F0-0CFC304055C6}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="I86" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AE100" sqref="AE100"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:AE2" xr:uid="{06D7853F-21AA-4DC2-9DF7-370B797AE2BB}"/>
+      <autoFilter ref="A2:AE301" xr:uid="{E9B3F3F8-0739-4E3A-ADCB-1A9E5C9495C1}"/>
+    </customSheetView>
+    <customSheetView guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C120" sqref="C120"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A2:AE330" xr:uid="{23D3C70C-2EC4-40AB-9B16-B9C9F0C30CF8}"/>
+    </customSheetView>
+    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="A2:AE2" xr:uid="{D6DACFFB-2162-42CB-B561-3C693E28747C}"/>
+    </customSheetView>
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+      <autoFilter ref="A2:Y2" xr:uid="{B432E1AD-3164-4952-9E39-539DCB7CF8A3}"/>
     </customSheetView>
     <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A2:Y2" xr:uid="{ADAA3D6F-4318-4B59-81D6-423C1181E84D}"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+      <autoFilter ref="A2:Y2" xr:uid="{E6B1BC57-8230-4392-A90C-4E4F94B0F153}"/>
     </customSheetView>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A2:Y2" xr:uid="{673284EE-F0AD-427D-A7E8-65EB796506A8}"/>
-    </customSheetView>
-    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A2:AE2" xr:uid="{41C1F83F-4C16-416B-AFF9-43FFD2910758}"/>
-    </customSheetView>
-    <customSheetView guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C120" sqref="C120"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-      <autoFilter ref="A2:AE330" xr:uid="{FFA2F234-F3F9-464B-8D81-7146AE8BADE4}"/>
-    </customSheetView>
-    <customSheetView guid="{39A3C600-CBEE-40C9-80F0-0CFC304055C6}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="I86" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AE100" sqref="AE100"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-      <autoFilter ref="A2:AE301" xr:uid="{27C071D9-A808-4C8F-9D13-C8F0AF9610DE}"/>
+      <autoFilter ref="A2:AE2" xr:uid="{E8B0913F-0BF2-4F85-8B75-560A9B85FB17}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -7393,17 +7342,17 @@
       <c r="E111" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F111" s="68" t="s">
+      <c r="F111" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="G111" s="69"/>
-      <c r="H111" s="69"/>
-      <c r="I111" s="69"/>
-      <c r="J111" s="69"/>
-      <c r="K111" s="69"/>
-      <c r="L111" s="69"/>
-      <c r="M111" s="69"/>
-      <c r="N111" s="70"/>
+      <c r="G111" s="100"/>
+      <c r="H111" s="100"/>
+      <c r="I111" s="100"/>
+      <c r="J111" s="100"/>
+      <c r="K111" s="100"/>
+      <c r="L111" s="100"/>
+      <c r="M111" s="100"/>
+      <c r="N111" s="101"/>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="11" t="s">
@@ -8293,7 +8242,7 @@
       <c r="A148" s="26">
         <v>1</v>
       </c>
-      <c r="B148" s="71" t="s">
+      <c r="B148" s="84" t="s">
         <v>3</v>
       </c>
       <c r="C148" s="27" t="s">
@@ -8319,7 +8268,7 @@
       <c r="A149" s="26">
         <v>2</v>
       </c>
-      <c r="B149" s="72"/>
+      <c r="B149" s="85"/>
       <c r="C149" s="28" t="s">
         <v>129</v>
       </c>
@@ -8341,7 +8290,7 @@
       <c r="A150" s="26">
         <v>3</v>
       </c>
-      <c r="B150" s="72"/>
+      <c r="B150" s="85"/>
       <c r="C150" s="28" t="s">
         <v>9</v>
       </c>
@@ -8361,7 +8310,7 @@
       <c r="A151" s="26">
         <v>4</v>
       </c>
-      <c r="B151" s="72"/>
+      <c r="B151" s="85"/>
       <c r="C151" s="28" t="s">
         <v>131</v>
       </c>
@@ -8385,7 +8334,7 @@
       <c r="A152" s="26">
         <v>5</v>
       </c>
-      <c r="B152" s="72"/>
+      <c r="B152" s="85"/>
       <c r="C152" s="27" t="s">
         <v>133</v>
       </c>
@@ -8409,7 +8358,7 @@
       <c r="A153" s="26">
         <v>6</v>
       </c>
-      <c r="B153" s="72"/>
+      <c r="B153" s="85"/>
       <c r="C153" s="27" t="s">
         <v>137</v>
       </c>
@@ -8433,7 +8382,7 @@
       <c r="A154" s="26">
         <v>7</v>
       </c>
-      <c r="B154" s="72"/>
+      <c r="B154" s="85"/>
       <c r="C154" s="28" t="s">
         <v>140</v>
       </c>
@@ -8455,7 +8404,7 @@
       <c r="A155" s="26">
         <v>8</v>
       </c>
-      <c r="B155" s="72"/>
+      <c r="B155" s="85"/>
       <c r="C155" s="27" t="s">
         <v>141</v>
       </c>
@@ -8479,7 +8428,7 @@
       <c r="A156" s="26">
         <v>9</v>
       </c>
-      <c r="B156" s="72"/>
+      <c r="B156" s="85"/>
       <c r="C156" s="27" t="s">
         <v>142</v>
       </c>
@@ -8503,7 +8452,7 @@
       <c r="A157" s="26">
         <v>10</v>
       </c>
-      <c r="B157" s="72"/>
+      <c r="B157" s="85"/>
       <c r="C157" s="28" t="s">
         <v>143</v>
       </c>
@@ -8527,7 +8476,7 @@
       <c r="A158" s="26">
         <v>11</v>
       </c>
-      <c r="B158" s="72"/>
+      <c r="B158" s="85"/>
       <c r="C158" s="28" t="s">
         <v>144</v>
       </c>
@@ -8551,7 +8500,7 @@
       <c r="A159" s="26">
         <v>12</v>
       </c>
-      <c r="B159" s="72"/>
+      <c r="B159" s="85"/>
       <c r="C159" s="28" t="s">
         <v>146</v>
       </c>
@@ -8573,7 +8522,7 @@
       <c r="A160" s="26">
         <v>13</v>
       </c>
-      <c r="B160" s="73"/>
+      <c r="B160" s="79"/>
       <c r="C160" s="28" t="s">
         <v>54</v>
       </c>
@@ -8597,7 +8546,7 @@
       <c r="A161" s="26">
         <v>14</v>
       </c>
-      <c r="B161" s="66" t="s">
+      <c r="B161" s="75" t="s">
         <v>4</v>
       </c>
       <c r="C161" s="28" t="s">
@@ -8623,7 +8572,7 @@
       <c r="A162" s="26">
         <v>15</v>
       </c>
-      <c r="B162" s="67"/>
+      <c r="B162" s="74"/>
       <c r="C162" s="28" t="s">
         <v>154</v>
       </c>
@@ -8647,7 +8596,7 @@
       <c r="A163" s="26">
         <v>16</v>
       </c>
-      <c r="B163" s="71" t="s">
+      <c r="B163" s="84" t="s">
         <v>5</v>
       </c>
       <c r="C163" s="28" t="s">
@@ -8671,7 +8620,7 @@
       <c r="A164" s="26">
         <v>17</v>
       </c>
-      <c r="B164" s="74"/>
+      <c r="B164" s="102"/>
       <c r="C164" s="27" t="s">
         <v>158</v>
       </c>
@@ -8693,7 +8642,7 @@
       <c r="A165" s="26">
         <v>18</v>
       </c>
-      <c r="B165" s="73"/>
+      <c r="B165" s="79"/>
       <c r="C165" s="27" t="s">
         <v>160</v>
       </c>
@@ -8713,7 +8662,7 @@
       <c r="A166" s="26">
         <v>19</v>
       </c>
-      <c r="B166" s="66" t="s">
+      <c r="B166" s="75" t="s">
         <v>6</v>
       </c>
       <c r="C166" s="28" t="s">
@@ -8737,7 +8686,7 @@
       <c r="A167" s="26">
         <v>20</v>
       </c>
-      <c r="B167" s="67"/>
+      <c r="B167" s="74"/>
       <c r="C167" s="28" t="s">
         <v>165</v>
       </c>
@@ -8757,7 +8706,7 @@
       <c r="A168" s="26">
         <v>21</v>
       </c>
-      <c r="B168" s="67"/>
+      <c r="B168" s="74"/>
       <c r="C168" s="28" t="s">
         <v>166</v>
       </c>
@@ -8777,7 +8726,7 @@
       <c r="A169" s="26">
         <v>22</v>
       </c>
-      <c r="B169" s="67"/>
+      <c r="B169" s="74"/>
       <c r="C169" s="28" t="s">
         <v>167</v>
       </c>
@@ -8797,7 +8746,7 @@
       <c r="A170" s="26">
         <v>23</v>
       </c>
-      <c r="B170" s="67"/>
+      <c r="B170" s="74"/>
       <c r="C170" s="28" t="s">
         <v>168</v>
       </c>
@@ -8817,7 +8766,7 @@
       <c r="A171" s="26">
         <v>24</v>
       </c>
-      <c r="B171" s="67"/>
+      <c r="B171" s="74"/>
       <c r="C171" s="28" t="s">
         <v>169</v>
       </c>
@@ -8837,7 +8786,7 @@
       <c r="A172" s="26">
         <v>25</v>
       </c>
-      <c r="B172" s="67"/>
+      <c r="B172" s="74"/>
       <c r="C172" s="28" t="s">
         <v>170</v>
       </c>
@@ -8857,7 +8806,7 @@
       <c r="A173" s="26">
         <v>26</v>
       </c>
-      <c r="B173" s="67"/>
+      <c r="B173" s="74"/>
       <c r="C173" s="28" t="s">
         <v>40</v>
       </c>
@@ -8877,7 +8826,7 @@
       <c r="A174" s="26">
         <v>27</v>
       </c>
-      <c r="B174" s="66" t="s">
+      <c r="B174" s="75" t="s">
         <v>7</v>
       </c>
       <c r="C174" s="28" t="s">
@@ -8901,7 +8850,7 @@
       <c r="A175" s="26">
         <v>28</v>
       </c>
-      <c r="B175" s="67"/>
+      <c r="B175" s="74"/>
       <c r="C175" s="27" t="s">
         <v>174</v>
       </c>
@@ -8923,7 +8872,7 @@
       <c r="A176" s="26">
         <v>29</v>
       </c>
-      <c r="B176" s="67"/>
+      <c r="B176" s="74"/>
       <c r="C176" s="28" t="s">
         <v>177</v>
       </c>
@@ -8945,7 +8894,7 @@
       <c r="A177" s="26">
         <v>30</v>
       </c>
-      <c r="B177" s="71" t="s">
+      <c r="B177" s="84" t="s">
         <v>8</v>
       </c>
       <c r="C177" s="28" t="s">
@@ -8971,7 +8920,7 @@
       <c r="A178" s="31">
         <v>31</v>
       </c>
-      <c r="B178" s="72"/>
+      <c r="B178" s="85"/>
       <c r="C178" s="32" t="s">
         <v>182</v>
       </c>
@@ -8995,7 +8944,7 @@
       <c r="A179" s="23">
         <v>32</v>
       </c>
-      <c r="B179" s="75" t="s">
+      <c r="B179" s="86" t="s">
         <v>184</v>
       </c>
       <c r="C179" s="33" t="s">
@@ -9019,7 +8968,7 @@
       <c r="A180" s="26">
         <v>33</v>
       </c>
-      <c r="B180" s="76"/>
+      <c r="B180" s="87"/>
       <c r="C180" s="27" t="s">
         <v>188</v>
       </c>
@@ -9041,7 +8990,7 @@
       <c r="A181" s="26">
         <v>34</v>
       </c>
-      <c r="B181" s="77"/>
+      <c r="B181" s="88"/>
       <c r="C181" s="34" t="s">
         <v>191</v>
       </c>
@@ -9063,7 +9012,7 @@
       <c r="A182" s="31">
         <v>35</v>
       </c>
-      <c r="B182" s="77"/>
+      <c r="B182" s="88"/>
       <c r="C182" s="34" t="s">
         <v>192</v>
       </c>
@@ -9085,7 +9034,7 @@
       <c r="A183" s="31">
         <v>36</v>
       </c>
-      <c r="B183" s="77"/>
+      <c r="B183" s="88"/>
       <c r="C183" s="34" t="s">
         <v>195</v>
       </c>
@@ -9105,7 +9054,7 @@
       <c r="A184" s="31">
         <v>37</v>
       </c>
-      <c r="B184" s="77"/>
+      <c r="B184" s="88"/>
       <c r="C184" s="34" t="s">
         <v>247</v>
       </c>
@@ -9127,7 +9076,7 @@
       <c r="A185" s="35">
         <v>38</v>
       </c>
-      <c r="B185" s="78"/>
+      <c r="B185" s="83"/>
       <c r="C185" s="36" t="s">
         <v>251</v>
       </c>
@@ -9178,11 +9127,11 @@
       <c r="B199" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="C199" s="79" t="s">
+      <c r="C199" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="D199" s="79"/>
-      <c r="E199" s="79"/>
+      <c r="D199" s="89"/>
+      <c r="E199" s="89"/>
       <c r="F199" s="37" t="s">
         <v>41</v>
       </c>
@@ -9191,17 +9140,17 @@
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="80" t="s">
+      <c r="A200" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="B200" s="67" t="s">
+      <c r="B200" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="C200" s="82" t="s">
+      <c r="C200" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="D200" s="83"/>
-      <c r="E200" s="83"/>
+      <c r="D200" s="92"/>
+      <c r="E200" s="92"/>
       <c r="F200" s="28" t="s">
         <v>207</v>
       </c>
@@ -9210,13 +9159,13 @@
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="80"/>
-      <c r="B201" s="81"/>
-      <c r="C201" s="84" t="s">
+      <c r="A201" s="72"/>
+      <c r="B201" s="90"/>
+      <c r="C201" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="D201" s="85"/>
-      <c r="E201" s="85"/>
+      <c r="D201" s="94"/>
+      <c r="E201" s="94"/>
       <c r="F201" s="32" t="s">
         <v>208</v>
       </c>
@@ -9225,15 +9174,15 @@
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="80"/>
-      <c r="B202" s="67" t="s">
+      <c r="A202" s="72"/>
+      <c r="B202" s="74" t="s">
         <v>209</v>
       </c>
-      <c r="C202" s="86" t="s">
+      <c r="C202" s="95" t="s">
         <v>210</v>
       </c>
-      <c r="D202" s="86"/>
-      <c r="E202" s="86"/>
+      <c r="D202" s="95"/>
+      <c r="E202" s="95"/>
       <c r="F202" s="28" t="s">
         <v>207</v>
       </c>
@@ -9242,13 +9191,13 @@
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="80"/>
-      <c r="B203" s="67"/>
-      <c r="C203" s="84" t="s">
+      <c r="A203" s="72"/>
+      <c r="B203" s="74"/>
+      <c r="C203" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="D203" s="84"/>
-      <c r="E203" s="84"/>
+      <c r="D203" s="93"/>
+      <c r="E203" s="93"/>
       <c r="F203" s="28" t="s">
         <v>208</v>
       </c>
@@ -9257,15 +9206,15 @@
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="80"/>
-      <c r="B204" s="81" t="s">
+      <c r="A204" s="72"/>
+      <c r="B204" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="C204" s="87" t="s">
+      <c r="C204" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="D204" s="88"/>
-      <c r="E204" s="89"/>
+      <c r="D204" s="97"/>
+      <c r="E204" s="98"/>
       <c r="F204" s="28" t="s">
         <v>207</v>
       </c>
@@ -9274,13 +9223,13 @@
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="80"/>
-      <c r="B205" s="73"/>
-      <c r="C205" s="87" t="s">
+      <c r="A205" s="72"/>
+      <c r="B205" s="79"/>
+      <c r="C205" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="D205" s="88"/>
-      <c r="E205" s="89"/>
+      <c r="D205" s="97"/>
+      <c r="E205" s="98"/>
       <c r="F205" s="28" t="s">
         <v>208</v>
       </c>
@@ -9289,15 +9238,15 @@
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="80"/>
-      <c r="B206" s="67" t="s">
+      <c r="A206" s="72"/>
+      <c r="B206" s="74" t="s">
         <v>212</v>
       </c>
-      <c r="C206" s="86" t="s">
+      <c r="C206" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="D206" s="86"/>
-      <c r="E206" s="86"/>
+      <c r="D206" s="95"/>
+      <c r="E206" s="95"/>
       <c r="F206" s="28" t="s">
         <v>207</v>
       </c>
@@ -9306,13 +9255,13 @@
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="80"/>
-      <c r="B207" s="67"/>
-      <c r="C207" s="86" t="s">
+      <c r="A207" s="72"/>
+      <c r="B207" s="74"/>
+      <c r="C207" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="D207" s="86"/>
-      <c r="E207" s="86"/>
+      <c r="D207" s="95"/>
+      <c r="E207" s="95"/>
       <c r="F207" s="28" t="s">
         <v>208</v>
       </c>
@@ -9321,17 +9270,17 @@
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="80" t="s">
+      <c r="A208" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="B208" s="67" t="s">
+      <c r="B208" s="74" t="s">
         <v>215</v>
       </c>
-      <c r="C208" s="66" t="s">
+      <c r="C208" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="D208" s="67"/>
-      <c r="E208" s="67"/>
+      <c r="D208" s="74"/>
+      <c r="E208" s="74"/>
       <c r="F208" s="28" t="s">
         <v>207</v>
       </c>
@@ -9340,13 +9289,13 @@
       </c>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="80"/>
-      <c r="B209" s="67"/>
-      <c r="C209" s="67" t="s">
+      <c r="A209" s="72"/>
+      <c r="B209" s="74"/>
+      <c r="C209" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="D209" s="67"/>
-      <c r="E209" s="67"/>
+      <c r="D209" s="74"/>
+      <c r="E209" s="74"/>
       <c r="F209" s="28" t="s">
         <v>208</v>
       </c>
@@ -9355,15 +9304,15 @@
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="80"/>
-      <c r="B210" s="67" t="s">
+      <c r="A210" s="72"/>
+      <c r="B210" s="74" t="s">
         <v>217</v>
       </c>
-      <c r="C210" s="67" t="s">
+      <c r="C210" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="D210" s="67"/>
-      <c r="E210" s="67"/>
+      <c r="D210" s="74"/>
+      <c r="E210" s="74"/>
       <c r="F210" s="28" t="s">
         <v>207</v>
       </c>
@@ -9372,13 +9321,13 @@
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="80"/>
-      <c r="B211" s="67"/>
-      <c r="C211" s="67" t="s">
+      <c r="A211" s="72"/>
+      <c r="B211" s="74"/>
+      <c r="C211" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="D211" s="67"/>
-      <c r="E211" s="67"/>
+      <c r="D211" s="74"/>
+      <c r="E211" s="74"/>
       <c r="F211" s="28" t="s">
         <v>208</v>
       </c>
@@ -9387,17 +9336,17 @@
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="80" t="s">
+      <c r="A212" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="B212" s="67" t="s">
+      <c r="B212" s="74" t="s">
         <v>219</v>
       </c>
-      <c r="C212" s="66" t="s">
+      <c r="C212" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="D212" s="67"/>
-      <c r="E212" s="67"/>
+      <c r="D212" s="74"/>
+      <c r="E212" s="74"/>
       <c r="F212" s="28" t="s">
         <v>207</v>
       </c>
@@ -9406,13 +9355,13 @@
       </c>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="80"/>
-      <c r="B213" s="67"/>
-      <c r="C213" s="67" t="s">
+      <c r="A213" s="72"/>
+      <c r="B213" s="74"/>
+      <c r="C213" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="D213" s="67"/>
-      <c r="E213" s="67"/>
+      <c r="D213" s="74"/>
+      <c r="E213" s="74"/>
       <c r="F213" s="28" t="s">
         <v>208</v>
       </c>
@@ -9421,15 +9370,15 @@
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="80"/>
-      <c r="B214" s="67" t="s">
+      <c r="A214" s="72"/>
+      <c r="B214" s="74" t="s">
         <v>220</v>
       </c>
-      <c r="C214" s="66" t="s">
+      <c r="C214" s="75" t="s">
         <v>221</v>
       </c>
-      <c r="D214" s="67"/>
-      <c r="E214" s="67"/>
+      <c r="D214" s="74"/>
+      <c r="E214" s="74"/>
       <c r="F214" s="28" t="s">
         <v>207</v>
       </c>
@@ -9438,13 +9387,13 @@
       </c>
     </row>
     <row r="215" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A215" s="91"/>
-      <c r="B215" s="92"/>
-      <c r="C215" s="92" t="s">
+      <c r="A215" s="73"/>
+      <c r="B215" s="76"/>
+      <c r="C215" s="76" t="s">
         <v>222</v>
       </c>
-      <c r="D215" s="92"/>
-      <c r="E215" s="92"/>
+      <c r="D215" s="76"/>
+      <c r="E215" s="76"/>
       <c r="F215" s="36" t="s">
         <v>208</v>
       </c>
@@ -9466,12 +9415,12 @@
       <c r="A220" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="B220" s="93" t="s">
+      <c r="B220" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="C220" s="93"/>
-      <c r="D220" s="93"/>
-      <c r="E220" s="93"/>
+      <c r="C220" s="77"/>
+      <c r="D220" s="77"/>
+      <c r="E220" s="77"/>
       <c r="F220" s="43" t="s">
         <v>226</v>
       </c>
@@ -9483,12 +9432,12 @@
       <c r="A221" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="B221" s="94" t="s">
+      <c r="B221" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="C221" s="73"/>
-      <c r="D221" s="73"/>
-      <c r="E221" s="73"/>
+      <c r="C221" s="79"/>
+      <c r="D221" s="79"/>
+      <c r="E221" s="79"/>
       <c r="F221" s="46" t="s">
         <v>104</v>
       </c>
@@ -9500,12 +9449,12 @@
       <c r="A222" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="B222" s="95" t="s">
+      <c r="B222" s="80" t="s">
         <v>231</v>
       </c>
-      <c r="C222" s="96"/>
-      <c r="D222" s="96"/>
-      <c r="E222" s="97"/>
+      <c r="C222" s="81"/>
+      <c r="D222" s="81"/>
+      <c r="E222" s="82"/>
       <c r="F222" s="15" t="s">
         <v>61</v>
       </c>
@@ -9517,12 +9466,12 @@
       <c r="A223" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B223" s="95" t="s">
+      <c r="B223" s="80" t="s">
         <v>232</v>
       </c>
-      <c r="C223" s="96"/>
-      <c r="D223" s="96"/>
-      <c r="E223" s="97"/>
+      <c r="C223" s="81"/>
+      <c r="D223" s="81"/>
+      <c r="E223" s="82"/>
       <c r="F223" s="18" t="s">
         <v>61</v>
       </c>
@@ -9534,12 +9483,12 @@
       <c r="A224" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="B224" s="78" t="s">
+      <c r="B224" s="83" t="s">
         <v>234</v>
       </c>
-      <c r="C224" s="92"/>
-      <c r="D224" s="92"/>
-      <c r="E224" s="92"/>
+      <c r="C224" s="76"/>
+      <c r="D224" s="76"/>
+      <c r="E224" s="76"/>
       <c r="F224" s="21" t="s">
         <v>61</v>
       </c>
@@ -9584,11 +9533,11 @@
       <c r="C229" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D229" s="90" t="s">
+      <c r="D229" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="E229" s="90"/>
-      <c r="F229" s="90"/>
+      <c r="E229" s="71"/>
+      <c r="F229" s="71"/>
       <c r="G229" s="25"/>
     </row>
     <row r="230" spans="1:7">
@@ -9601,11 +9550,11 @@
       <c r="C230" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D230" s="102" t="s">
+      <c r="D230" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="E230" s="102"/>
-      <c r="F230" s="102"/>
+      <c r="E230" s="70"/>
+      <c r="F230" s="70"/>
       <c r="G230" s="39"/>
     </row>
     <row r="231" spans="1:7">
@@ -9618,11 +9567,11 @@
       <c r="C231" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D231" s="102" t="s">
+      <c r="D231" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="E231" s="102"/>
-      <c r="F231" s="102"/>
+      <c r="E231" s="70"/>
+      <c r="F231" s="70"/>
       <c r="G231" s="39"/>
     </row>
     <row r="232" spans="1:7">
@@ -9635,11 +9584,11 @@
       <c r="C232" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D232" s="102" t="s">
+      <c r="D232" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="E232" s="102"/>
-      <c r="F232" s="102"/>
+      <c r="E232" s="70"/>
+      <c r="F232" s="70"/>
       <c r="G232" s="39"/>
     </row>
     <row r="233" spans="1:7">
@@ -9652,11 +9601,11 @@
       <c r="C233" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D233" s="102" t="s">
+      <c r="D233" s="70" t="s">
         <v>240</v>
       </c>
-      <c r="E233" s="102"/>
-      <c r="F233" s="102"/>
+      <c r="E233" s="70"/>
+      <c r="F233" s="70"/>
       <c r="G233" s="39"/>
     </row>
     <row r="234" spans="1:7">
@@ -9669,11 +9618,11 @@
       <c r="C234" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D234" s="102" t="s">
+      <c r="D234" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="E234" s="102"/>
-      <c r="F234" s="102"/>
+      <c r="E234" s="70"/>
+      <c r="F234" s="70"/>
       <c r="G234" s="39"/>
     </row>
     <row r="235" spans="1:7">
@@ -9686,11 +9635,11 @@
       <c r="C235" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D235" s="98" t="s">
+      <c r="D235" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="E235" s="99"/>
-      <c r="F235" s="100"/>
+      <c r="E235" s="67"/>
+      <c r="F235" s="68"/>
       <c r="G235" s="40"/>
     </row>
     <row r="236" spans="1:7">
@@ -9703,11 +9652,11 @@
       <c r="C236" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D236" s="98" t="s">
+      <c r="D236" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="E236" s="99"/>
-      <c r="F236" s="100"/>
+      <c r="E236" s="67"/>
+      <c r="F236" s="68"/>
       <c r="G236" s="40"/>
     </row>
     <row r="237" spans="1:7">
@@ -9720,11 +9669,11 @@
       <c r="C237" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D237" s="98" t="s">
+      <c r="D237" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="E237" s="99"/>
-      <c r="F237" s="100"/>
+      <c r="E237" s="67"/>
+      <c r="F237" s="68"/>
       <c r="G237" s="40"/>
     </row>
     <row r="238" spans="1:7">
@@ -9822,17 +9771,22 @@
       <c r="C243" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D243" s="101" t="s">
+      <c r="D243" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="E243" s="101"/>
-      <c r="F243" s="101"/>
+      <c r="E243" s="69"/>
+      <c r="F243" s="69"/>
       <c r="G243" s="41"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="dSSGbMlehNtWlIHSSfftCqUMab+Sb0hooxQMUpoStERkR2/XS3ERiPNaNXV+uIt5I/NGfmkjhmoCMOi5hOXKdQ==" saltValue="4j3/9e0Khi55FR2zrD17vg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115">
+    <customSheetView guid="{39A3C600-CBEE-40C9-80F0-0CFC304055C6}" scale="115">
+      <selection activeCell="C4" sqref="C4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+    </customSheetView>
+    <customSheetView guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" scale="115">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
@@ -9842,47 +9796,19 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
-    <customSheetView guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" scale="115">
-      <selection activeCell="C4" sqref="C4"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait"/>
-    </customSheetView>
-    <customSheetView guid="{39A3C600-CBEE-40C9-80F0-0CFC304055C6}" scale="115">
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="51">
-    <mergeCell ref="D236:F236"/>
-    <mergeCell ref="D237:F237"/>
-    <mergeCell ref="D243:F243"/>
-    <mergeCell ref="D230:F230"/>
-    <mergeCell ref="D231:F231"/>
-    <mergeCell ref="D232:F232"/>
-    <mergeCell ref="D233:F233"/>
-    <mergeCell ref="D234:F234"/>
-    <mergeCell ref="D235:F235"/>
-    <mergeCell ref="D229:F229"/>
-    <mergeCell ref="A212:A215"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="C212:E212"/>
-    <mergeCell ref="C213:E213"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="C214:E214"/>
-    <mergeCell ref="C215:E215"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B221:E221"/>
-    <mergeCell ref="B222:E222"/>
-    <mergeCell ref="B223:E223"/>
-    <mergeCell ref="B224:E224"/>
-    <mergeCell ref="A208:A211"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:E208"/>
-    <mergeCell ref="C209:E209"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="C210:E210"/>
-    <mergeCell ref="C211:E211"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="F111:N111"/>
+    <mergeCell ref="B148:B160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="B166:B173"/>
     <mergeCell ref="B177:B178"/>
     <mergeCell ref="B179:B185"/>
     <mergeCell ref="C199:E199"/>
@@ -9899,12 +9825,35 @@
     <mergeCell ref="B206:B207"/>
     <mergeCell ref="C206:E206"/>
     <mergeCell ref="C207:E207"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="F111:N111"/>
-    <mergeCell ref="B148:B160"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="B166:B173"/>
+    <mergeCell ref="A208:A211"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="C209:E209"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="C210:E210"/>
+    <mergeCell ref="C211:E211"/>
+    <mergeCell ref="D229:F229"/>
+    <mergeCell ref="A212:A215"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="C212:E212"/>
+    <mergeCell ref="C213:E213"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="C214:E214"/>
+    <mergeCell ref="C215:E215"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B221:E221"/>
+    <mergeCell ref="B222:E222"/>
+    <mergeCell ref="B223:E223"/>
+    <mergeCell ref="B224:E224"/>
+    <mergeCell ref="D236:F236"/>
+    <mergeCell ref="D237:F237"/>
+    <mergeCell ref="D243:F243"/>
+    <mergeCell ref="D230:F230"/>
+    <mergeCell ref="D231:F231"/>
+    <mergeCell ref="D232:F232"/>
+    <mergeCell ref="D233:F233"/>
+    <mergeCell ref="D234:F234"/>
+    <mergeCell ref="D235:F235"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9923,27 +9872,27 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+    <customSheetView guid="{39A3C600-CBEE-40C9-80F0-0CFC304055C6}" topLeftCell="D10">
+      <selection activeCell="J8" sqref="J8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" topLeftCell="D10">
+      <selection activeCell="J8" sqref="J8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" topLeftCell="D295">
+      <selection activeCell="A4" sqref="A4:AE331"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
+      <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
-      <selection activeCell="E26" sqref="E26"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" topLeftCell="D295">
-      <selection activeCell="A4" sqref="A4:AE331"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" topLeftCell="D10">
-      <selection activeCell="J8" sqref="J8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{39A3C600-CBEE-40C9-80F0-0CFC304055C6}" topLeftCell="D10">
-      <selection activeCell="J8" sqref="J8"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
